--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/47_Kayseri_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/47_Kayseri_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDD347A-9A0E-45F2-9C96-E4664EC3C6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4874C9F-EB3C-4C85-83F6-3928F353474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3150AEA8-047D-4824-97E1-96FD8D9D2DA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5C8D0A6-7FBC-4C3A-A77E-6CD08D0B4F58}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B401942E-4FFB-4B3A-A03D-E40322C66C98}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{75191D92-4C21-4008-AE45-CEEEDD942155}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{B76F36B6-39D1-4ABF-BC0B-79DEB23BCC60}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{5A2BBB89-E1B0-48C2-9C9A-8497A50D2C76}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{09CF4B44-4862-4CA1-BE86-B2DA0A74A268}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{D492EC9D-624A-4C62-9529-F1F30644E3FE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{E044E1E9-AFFF-4B19-9EFC-2FCEE3433D9B}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{BD45BAA9-1A24-4F66-AA6A-BB8ACF66C2C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA78CA43-C815-46A8-95F1-43BEAE36C52A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AA314A-B2C4-4F42-9367-7B834307ABB6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2483,18 +2483,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A9D459B4-4B2D-4427-B711-B612339B6977}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6A1F39BF-4C8E-4C68-BC12-E6E6087F649E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A6CAB99D-E7F2-429F-8107-34713D4619BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1EFF06BC-B227-4056-92A8-916B34F98850}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{93BDB4A9-81DA-4185-9417-FDF79043ABE5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4145FC0A-43E2-46D9-B6E3-3EC924EC91FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6C240AF5-78B7-43D6-BD27-EE594EF1C5AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{83E89FBD-3595-4707-931D-E2A237C4D660}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{33320EF1-9561-475E-865E-A20842BB46AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F22FE681-5DBA-43D4-9DEA-AE6DF3380935}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F0D5FFA2-FD5D-4F04-94EF-9BFBE8C31094}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{20609409-AEC0-4702-82FE-731CAE7CB07F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{790F9998-8BE6-4268-BFA6-4207E2F722CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5D7E8C09-EEBE-46AC-93A5-66FDD5969BA7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DFEC2164-6707-43AB-AD78-E78EC5A34D64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{65B8D492-1283-4628-AEEE-2E01C08D1A95}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{77B75C97-2116-46B7-9A4A-32088676997A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2FFD3903-9B36-4EC4-92EB-B382A60CB74F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F504563-5C48-472B-8E50-2CA9906ACA72}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{04E05759-ACDF-4723-812C-45EF929DF6C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4F54E452-E8C8-4482-A82E-63776161AB31}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F2451EB9-E195-48E4-BE19-8FB9309F8C8E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1E971D81-A737-41FE-9566-616B46BEAED9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FE01313E-535C-4255-8B0D-9330495B8381}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2507,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E343A18-BCDC-4F98-8821-E2FF631601EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A64EC9F-8265-46FF-89C4-C7A0DFD8946D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3734,18 +3734,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4709CCCD-8779-4D17-8AC8-CEC1F5BD1252}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E16FBDD6-CF97-4C29-97A0-562EDDCDCFF6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6E8DA524-B8EC-4B6F-9AA2-8CA5C2C4873D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B2975081-B2DF-4B68-93D6-33281BDDE3A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D29108F2-B308-413D-9393-79D316CEF58D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8A7AE315-CA82-429A-B92B-D6BDF265C68D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AA953A54-83A8-468E-ADF3-9B650BD9F78A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CFF463C3-7D92-4944-8263-532816F97EBA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{45726DC2-9B4F-46AA-8718-9B1F45AC5183}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D9F63FA4-DDD2-4106-A0FB-5F499E82AD6E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{872046E0-DC43-42DF-9CBC-9586BE3E0A38}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F5CD9471-A3CB-45B3-A78F-2B9498ED77A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B48EE00E-3DA7-4D4B-B465-D3EA06E8FD28}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B7B8F1F8-AF3A-4152-862A-7DD65286F791}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F328440E-778F-4585-BF49-064293F0480D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0C653D8F-0CE8-4C59-81D8-8AF53B322A62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6A07C4E3-FECB-4318-A703-D17510C7A1F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{80186BAB-229F-457F-B39B-AE952AD58990}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A4BC0F61-0B14-46CB-8968-A463266A4EEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{92BD0839-F661-45BA-9959-E466F0EA8A8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{80DE01DB-4B50-481C-B602-96D94CF8C830}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DEC55BBF-9E9B-4E8F-9DB6-1FBD2B14EEF8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C2613CA6-F673-4496-AB1E-97B8AFEE3B8D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CD0B717F-8FC8-4BF0-A84E-37BF07655C24}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3758,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982078A2-C427-4FD1-ACCB-1DA98C1DB028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FADBDF9-8186-44BE-8FD8-DFE4056C77D1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4969,18 +4969,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7DB08452-B85E-47EA-9D23-1D3D01FD8DF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CB03D4D4-C168-43BA-AAD9-5F598A6C0C1C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{206EB385-0E50-4C5C-87B2-BA526515D176}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5E08913E-3EFB-4995-9D98-B86F85656291}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{580C531E-1D78-454A-AEC6-B95C0BAE0BB7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{112DAE22-0B25-46E2-A55E-EC59DA7A5BE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C8BBDD2-7556-45A9-AB01-9568C6482F66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2BEFF471-25F2-4B72-8E1E-F92DCAAEE265}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{05693225-470A-454A-9BF4-34539459D5C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{846F8F0A-E1B0-4958-A2B7-A6313D01573F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FA0F41B3-97C6-4AC4-835D-C6C1A760782E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{78247239-5844-40FC-9F5A-465D9DEAB3DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3C351F84-07BD-4BAF-A605-F3966EEF3C04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{45ED09FB-033E-4FDD-95E7-C38F0578963E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{36B7806D-49A2-4B21-AF98-6BEACDCDB724}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F114D627-CA00-46E1-99EC-5261B4A26886}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0F0DE890-370E-4747-8EEC-F1DD1C530CEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{45513136-DF96-4A96-B9B1-A276669746BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B50ACDFC-336C-419E-ACBE-395DA44C6C33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{749BFEA2-F85F-4E6E-8E6B-C76E25A898BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D04A0D92-8840-43BF-8365-3369141C0E47}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3F61875E-69A2-4DA0-BDDA-E8A9494C9E7E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2322D1F2-EE20-4D39-9B6F-3479B0643C49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{055058F7-13E6-41E3-A79E-FB48E8A60481}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4993,7 +4993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24119638-1B1C-4BC2-B286-352BDDB2318D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A262C5D5-0791-4780-9072-3BA0FE06CCA7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6186,18 +6186,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E5979B3B-A238-4DEA-933E-1DBDFE578FF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E69CED51-826F-40D1-B3D6-64A09DA3870C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{72AD5018-E7EF-4A9D-A07F-70F3D3C16126}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FF8B20DD-04A5-4028-BB6C-A1E76D12B26D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6EB0C1FD-C878-49B1-B4A0-EC3BF4CCEFCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E55DFA8-7AB8-4C7F-9207-1AB7C3F844A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{043A5FAC-3644-47BA-A04C-729B273DB29D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{937D0963-2259-4381-BAEB-CF08DEA3EE82}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F55B7D08-63BB-4B46-88DE-577C0085C59D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5C439F43-C75A-4D5D-97A5-80199F695AF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{24288F5A-8708-4025-BAA0-A9ED0018DB6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7F8E4AD8-0793-4A11-B9B2-613A38B5C96B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EC2AA540-FCF4-4FE9-BCA6-4B60B8B416DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8BE34889-BEC4-4C87-9822-A2B417B98BFF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{077A833B-2920-4054-BE48-8A2876D29208}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{953AF136-E8B9-418D-80E0-FADFB2F791E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{75E45762-102B-4F15-90EE-0AF3328A83CA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{16AB7AA0-E4B2-458B-A05A-FE171F7381B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D8923158-2580-4338-A979-EF5476D57599}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0286B215-000D-4ED5-830F-A3157BF51CCB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{22CF7945-0DFD-451B-ABE1-5604DFEF48C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8FB3F5B1-5268-4AED-BF79-27BD2C86BCB0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{254B7BC7-3190-46D5-88C2-156956C58B10}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{445672BA-F674-45A2-89A7-AEB289DA165E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6210,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2009F8-9614-47B0-9BDF-48A9A3FC7479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149783E5-2A16-45BC-9277-BA3CF8535EB2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7461,18 +7461,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B8CFFE17-BB5D-4500-A305-8D8AD81AD75F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{36F43600-8B8B-4033-B0C5-11128CDA440A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{05C89A7C-7D9E-4D91-8369-D80347DDC489}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{122EADCD-2CA1-407A-8385-0825BF069792}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A5E00CCE-050F-40A3-9D82-9F192329CE6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D9349892-BF68-4739-88DA-43A3C5AB2743}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{524C9E47-76F1-4FEC-A09C-79CD61FA782A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CEB6C992-989C-4BFB-A361-9A5248B3F220}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0ACFB4F9-CADB-4518-A15D-541C4B586D4F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{646EAEED-1D2C-4A7C-B50D-EF7E38464B13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DB411C84-80AD-421E-A71A-007637C69294}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1E2C48BA-6319-460C-B5C6-246218EFBCCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{48DA951B-46FC-4849-A003-02147B20D170}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B9A60116-3324-47D8-BC2F-5BA06087A1F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B39251C6-5C49-4072-BB8D-6AF9CC45863F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{47D9CDFE-75A7-46FA-88E9-183637F393E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B4EA0570-5D33-4AE8-94AB-81F25F870D0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1A31D419-4B53-4FBB-B778-0E9149AB9259}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B78038EC-FF80-489A-A3AD-65D6B7B4AEAD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{43B3D588-78B9-4E9D-8C05-8F757117FE8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{70F70834-BD1D-4E2E-BE47-F7E57F94BC4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A30A2741-3997-4217-AB3E-648AF638E46B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C20DD73B-31C3-43C8-9188-E98CE32CB4AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{732DD7DD-EAFB-4A76-88F2-30ABFC69CB76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7485,7 +7485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86EF9A0-9CD4-4D7E-9DDF-EE2828F423ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C356D2A-A00A-4EDA-8487-D83F4C4981D7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8736,18 +8736,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A3D37181-EA78-4B15-815A-E11B8DE996AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9855C728-30A6-442B-ADA9-2C443979A0B7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CC5B1107-C9FC-4EEB-86F2-7C1E51BB6E0D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BA91FFD2-1872-46A4-8900-2FD3D34B8071}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A531BADC-373C-403F-9F57-D13EE44A8E64}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{27E6E39A-D9D8-44F6-A639-BDAE954B839E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D5582445-4236-45EB-B3BC-46745D1B1E7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{91F212FA-CB93-4CC8-8FC5-F8339980D03B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{28D3FDBE-7F7A-42A5-95A8-ED52CE0441D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E6D69E1F-5C43-45D4-A533-F1EDBF50F2CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ACAFD15B-5F7D-4CBE-B375-69BF7B13567B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2C489486-15D6-4C27-B6C9-A0C13922E566}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0531BB85-A339-4FCB-8D2D-937F6D1900B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C0C1445E-8500-44BC-9715-3A563E3DFA03}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{13473E8A-3CE8-4ED6-A367-61BD92CB3481}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F49105EE-AD1B-4B0E-823C-6BB2AA29354F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D61C4BB7-F7A9-499C-A9BB-BB06A9FB2384}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C899223E-476E-4A6D-BF30-FB85C4F7D54B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2FCE5EB4-32C6-48B5-8668-DB72DDD32888}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E499AEF-8408-4A9A-9AB4-53DFC0FF1B16}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EF26FF0E-0F6B-41B5-9F86-810D5A173ABC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C0CECDD9-FD7F-412F-A94D-0A1166FE1927}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A2278605-727E-4DE9-B64C-EA9457E5DDC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B3AEF19-804F-4F34-B2BB-D3D7CB8149A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8760,7 +8760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA363A37-E36E-4324-848B-A035F67B0C7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7144EA2B-3E3C-4C4C-B044-45614CFDD73C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10009,18 +10009,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B484B73-60A2-48A0-A6BA-ECB42404C646}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2648CDB3-D41D-4884-B966-1D9B54AD6CA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D30F7130-8853-410A-8594-699BCB9A1EF5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{09C5F570-BFD7-4C4A-8AF7-EA9D719954B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{998B7D7C-E583-4ABD-924E-4C1412E09200}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{83FE6E74-A397-476A-9BA3-2E82B54395BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0685FF12-DBC8-4E41-9064-8F9A6C2263F1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C312ACA5-DD92-42BF-ACF4-73E6BC28E624}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{721703F6-7A05-4C14-8BB4-D56918ECFEEE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5D189D35-971B-4A4F-968A-D634BAFD0490}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4F904F1B-E93B-4BCB-8939-E2AE8CDF94B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1242478F-5E73-42A8-BF41-12A33E2A9D1B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{31BA76AA-6D07-4633-A9D6-9F2DD689CE8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3BDBE3DA-2645-4774-B98C-56D5AEECBE16}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9D808866-E0E0-46DE-8CF8-35E0992C30B2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{46D1001F-51FF-445A-BE77-714D32F234DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{21F6D69D-AF75-41C2-8217-11C735A67485}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B04848F9-AEF1-4F0C-8D9D-A5ECC0CA5244}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12F4368F-4FBC-4A75-BC11-51AFA29EA2DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2C46C2C4-733B-403F-A774-D914EF924F99}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0C102E1D-29CF-465F-B80B-98B2E7DA23D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB49447C-FD25-44D0-A8FD-C9659B7C7092}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1D3B2BAA-0038-49B2-B25D-6586382115E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4DDD5F26-784E-458F-B1FA-7C3EDE6F48FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10033,7 +10033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AD10D2-080F-4628-AA3A-DDFBD298D5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F3E09-CE4E-41CF-83DC-A5FDCBF89521}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11280,18 +11280,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{04C3358C-9D4A-4032-9B53-458E9AD9D7B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1910FC23-614C-4581-9DD2-DAFEFDA5CA8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FB061A98-8A0B-47E8-98E3-1B750F9843BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6603143D-5D04-49CB-AD5D-1B71F536A2F5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{501F395C-8963-4FDC-ACB8-26DD6A653E6D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CAD14BB4-A547-4669-8350-4D730E9B90C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D3B3D645-2DCE-4E01-8406-469F709BCA37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CEC53FD4-3BC8-4143-A197-6002BB469FF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{167635A3-F791-4E7A-9D3C-5E7623EB310F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A9FD3C3C-5456-43AE-A179-CB04246189B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2541BC1C-524E-46A9-8848-405938B0DE10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{82D27814-A528-40FC-A8B6-2A67F88DD9F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DA2D1CB5-65F8-4891-8535-167DD115663A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4753E24A-DD24-4E96-97D2-6254D37C2671}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A1CB355E-8085-4A62-AF26-CAC806BD3496}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3EFDD66F-DC44-429E-B790-D18785545E23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B99A0E80-92FF-436F-87FB-C9E842B84AF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7327D3E9-28EF-4754-893D-CAFDE4DFEF68}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4A30A79-EC1D-4433-8252-021861B4C00C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1366ED21-57E0-480A-8C42-9B67036F167C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E4E512C7-BFA3-47DB-8C8A-E394EC973C5A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F7CF416E-A0FD-4BC0-A107-85CDB6C0B151}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{666FD3E2-B773-4013-80B2-CA2ACD76EF07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D4584F68-4096-4BE7-958B-A5DD571D9A6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11304,7 +11304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF88B9-CE4F-4D42-B86A-AA58EFBF3A56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317B8E70-6A1F-42EA-B108-ACAF5C5994A7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12551,18 +12551,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F6DE506A-2C48-47A9-8365-9960C16F2687}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{48353E38-5B29-4201-8160-2CC178BC2E24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2DA60177-1DA4-45EF-B2F0-3D68DC34D673}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CFD080EA-45C6-4990-8DA1-220AB32BB049}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A80F9619-54B2-4B94-B586-050C6ADEA6E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7E5B90E4-6086-4ED0-A271-7A3B41799CAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6CF3CFCB-50F9-4889-B937-0331069CCE40}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BF56F9EC-0B05-462D-8504-FCB06F8E7743}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{676A97CA-77E9-4EE5-A9C2-BC4E139E3F83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B2070E26-B31B-4F8A-BD9D-F85C186518E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7C9858E2-BBE9-43EC-B721-9518F59DC826}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E1B61F99-ABEA-4170-BE83-B49F47219F51}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{851D0A9C-657C-4C39-AB25-DB954A9919DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{603C95C3-6A89-44E7-8BBA-88355DD5CD69}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{248E19A3-23F9-428F-B67A-02B4E9E40EA1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CB0D3517-BAE1-4C90-99AA-A04FC3293A3B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A2034AD7-4557-4D81-9E84-A2AE12A380C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{804C8C05-6CD2-4721-A2C1-C3532E1094B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{942B2ED5-5D44-4043-98DE-EBF85D6733C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C5153132-5DC0-4978-83CF-A90AE7155D4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{15010102-5068-4C30-8ECD-09FD66E39BF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{94AE6A80-AADD-4120-9B99-F5FD2E95CF62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EED5661B-3091-4194-B88C-5D7ED6D45AB8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F53DF478-B663-4233-954A-4DA8DB1619EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12575,7 +12575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82257079-F641-4917-B63B-2FA25E307525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17959820-6EBB-4B50-95E2-67C39F6F1FBF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13822,18 +13822,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8B95C791-098C-43FC-99F7-769533DB8ABC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A6191B9C-F5F5-4B79-BA25-9F60DF30268A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{11C7224F-DEE3-4EC1-936F-F6AD5697FF4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B00DC84-D9F0-41AA-BB8D-CDAEDD85EB6E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B00D8D8A-F15E-43E1-BD32-93BF9B59F89C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2E569FE9-8936-4E9F-8F0C-2491198F212A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6D1F30D4-BC98-4AFE-A827-2AE94C8371B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{140345B3-9B47-4E2E-8974-6917CB97AFF2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3D5FF51A-7437-4580-A6EC-6C9A6A88CE8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DE78DD88-237C-497C-B6C4-9130C78904DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4B391DE6-22DD-4D66-9189-130523DAAC18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3B413F7A-5E4B-4AF3-A677-3D41C145944F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6FCE1D30-6BF2-4633-A688-5AAFC48B21CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC72FB36-4037-48D4-864A-C20C57A3414A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AC7394FE-521A-43C8-B496-F7E853081868}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{62FBE460-AA29-4841-BD1C-5545443E962E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C1CD6558-FCD2-4475-AB11-219CD4329C4A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3780CD30-1534-4DB2-A2F0-D0FABD427194}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F18F6BD1-9733-42AC-B324-82BF960C2306}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{507F9F79-F2B8-4663-AF74-80481EF0C7C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7E782B68-5F05-4F03-B0B6-B7D3672D5D93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4A81125A-D0AF-468A-B92B-D973CEF00492}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7F6D993D-DC6B-4811-81AE-E5CB4EDDD5AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8E8AE4A5-2151-4A9F-AE95-5AA1A02C64B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13846,7 +13846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400D13EB-712B-46CC-8F9E-200D55B4E80E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00C991C-2A89-4990-9BF6-1A352F6E310C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15093,18 +15093,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DAF31F66-E5E5-46F3-AC3C-E0D5906FF455}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{213834CC-3A38-48B1-B391-33BA00B1C6E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7E06324-901B-49ED-9DDA-04F15E35DAE8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1E5ABFD9-8E12-4FA4-A41A-A166A60A2102}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{63740CC9-DC16-4C48-9DFA-C60190E96780}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EFF3372A-A512-4161-94A6-1DBD3C236321}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E45F581E-C5A6-422C-8E7E-E8ED84434541}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C8F60CD4-B721-4BA5-836D-53495E999E49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{01B108D0-C9BE-45CE-9EE2-F3B88AA944B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B47300C2-7888-4AA2-BE3A-ABE4B772C9BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1BAB24C9-02E1-4188-888A-4B734BCC629A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CED27A0B-0B3A-40B3-9095-899E73456034}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AD1B7EF4-1B3F-48C2-9C7D-74BECF59E69F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2B33C922-36D8-4298-A5DC-53BC9F009C69}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6F0CFCD0-BF6D-42F8-86FE-8FD612FA711C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B82B8CAF-A95D-42C9-9EF3-E50FEDC71E14}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4152416B-7144-4E10-B13B-4ADC523C2323}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{57AD2E81-0767-4143-8C81-117ADFDD09F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{73B6D9B6-43EB-4745-85C5-C746584271F1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CED23902-4B79-42D8-A6AB-97DD16DF364D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{59745744-2DEB-47A7-984C-6901A92F8AD1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4B8FB36E-627D-41E5-A7D2-7A3094187832}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0E3BC563-EF06-458C-9105-D427D62DDA3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D0DA009E-EB0F-4929-A445-49E8286CF531}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15117,7 +15117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159B216C-EBD4-4CF0-A462-A7A4133B6EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DF5ECB-8606-47DD-B655-436DCF059DAC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16360,18 +16360,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{32F2BBBF-2252-4A44-BF8D-A6E72A6540D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{996EC69F-013D-4F94-A5F1-B500426DEA18}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3E1BC32C-2D83-42C8-9D93-0B5F310CC05A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{647316CA-1823-4B2E-84B0-DE57BFF104D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{408C58C9-1271-4D0D-BF74-DFEA7DA337DF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C32BDD2A-A29A-4B3D-A1A0-365858561E8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5C8565C6-BF9D-4009-AA39-4473D8EFE7DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5F9D549F-075A-4951-B0A4-DF26CDA3E3FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AAF3D001-9949-4CBF-802A-9A8BFBFF8D2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3D376910-1CEB-4FD6-BC83-76F76900F58E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7465D2B0-0ED9-4F58-8101-2C80D9CDE9BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{830342D8-54DF-4A22-B3E9-33382ADD6EED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84673F61-272C-4F5C-A0E2-BC1DE87BA5AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9E9ABC31-AE22-4E9C-876D-2B4DA13D267B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D4B1A3B6-E19C-48A7-A5C1-C6C16EAD6FE7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FDB687F1-8504-445A-BF6C-974963938780}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7EF1F4A2-503E-4EC7-B8D5-EC65D9F6584F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A6CB79A-4991-49BB-9B3B-282F0EC925D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FE8B2A3A-E245-44D6-9D04-BFDBE664C7C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D9821172-69C9-4FBE-8497-2B7FD62F0309}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F6AFEE26-9D97-427C-97F2-FF427F6E0694}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E3E34248-289A-48C2-9A94-0AD7293A2A84}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{23D932AA-700D-435C-888A-85221AED9F54}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F36278B0-9E5D-475D-8198-11325EAA528D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
